--- a/data/trans_camb/P16A12-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Clase-trans_camb.xlsx
@@ -540,7 +540,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que ha consumido medicinas para la diabetes en las dos últimas semanas</t>
+          <t>Población que ha consumido medicamentos para la diabetes en las dos últimas semanas</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_camb/P16A12-Clase-trans_camb.xlsx
+++ b/data/trans_camb/P16A12-Clase-trans_camb.xlsx
@@ -655,7 +655,7 @@
         <v>2.041152338276581</v>
       </c>
       <c r="H4" s="5" t="n">
-        <v>1.4721558047885</v>
+        <v>1.472155804788499</v>
       </c>
       <c r="I4" s="5" t="n">
         <v>0.5930922627208242</v>
@@ -664,7 +664,7 @@
         <v>2.047762422753591</v>
       </c>
       <c r="K4" s="5" t="n">
-        <v>1.940255260815452</v>
+        <v>1.940255260815451</v>
       </c>
     </row>
     <row r="5">
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-3.489939807772379</v>
+        <v>-3.089724520244745</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-1.106062335045094</v>
+        <v>-0.5876829420302613</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.07495315908677899</v>
+        <v>0.1218399398689009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>-0.102570258738598</v>
+        <v>-0.1982860653863739</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>-0.3209565173488567</v>
+        <v>-0.4882885896273217</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>-0.4152069234979874</v>
+        <v>-0.7048943053319157</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>-1.359033927466405</v>
+        <v>-1.397762170704608</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.03976094580458242</v>
+        <v>-0.09822164154737925</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.1057434059822492</v>
+        <v>0.1636422578757152</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>2.574603917411895</v>
+        <v>2.594788010774365</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>5.853958571325006</v>
+        <v>5.832921294581046</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>5.742040225092761</v>
+        <v>5.779255384485048</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>5.108642520927057</v>
+        <v>4.890018337158104</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>4.568671519611944</v>
+        <v>4.502377427926444</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>3.165154117791278</v>
+        <v>2.999528577932238</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>2.717452026103824</v>
+        <v>2.642499768206095</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>4.285881251795789</v>
+        <v>4.386628025545123</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>3.597622808550915</v>
+        <v>3.657397044275867</v>
       </c>
     </row>
     <row r="7">
@@ -760,7 +760,7 @@
         <v>1.278299122454024</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.9219573855842895</v>
+        <v>0.9219573855842893</v>
       </c>
       <c r="I7" s="6" t="n">
         <v>0.1667319140614971</v>
@@ -769,7 +769,7 @@
         <v>0.5756732463893717</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>0.5454505036359348</v>
+        <v>0.5454505036359344</v>
       </c>
     </row>
     <row r="8">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.5447725447656072</v>
+        <v>-0.5280045882103845</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.1880155562475416</v>
+        <v>-0.1025116031619738</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.002835694994869696</v>
+        <v>0.003641682643730717</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>-0.2392771475323408</v>
+        <v>-0.2890739683847816</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>-0.2224651834193738</v>
+        <v>-0.2887285026709813</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>-0.2533257125727202</v>
+        <v>-0.2922208876362929</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>-0.3288719668780187</v>
+        <v>-0.3284594600702785</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.0004955615509225886</v>
+        <v>-0.04830689174414846</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.02222491465841909</v>
+        <v>0.02031636747317658</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.7265283344381817</v>
+        <v>0.7679417520441038</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>1.686969194503051</v>
+        <v>1.760143485858464</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>1.660243044888768</v>
+        <v>1.696500183536731</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>7.558787240827746</v>
+        <v>7.693275030312013</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>7.367546610974989</v>
+        <v>6.641416313846166</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>5.616304404560776</v>
+        <v>4.577028441232929</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>1.065141427356673</v>
+        <v>1.014142197481856</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>1.623030382461252</v>
+        <v>1.64830610172337</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>1.375270856001259</v>
+        <v>1.340491841506216</v>
       </c>
     </row>
     <row r="10">
@@ -860,7 +860,7 @@
         <v>1.639243868484586</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>4.395834414132786</v>
+        <v>4.395834414132783</v>
       </c>
       <c r="F10" s="5" t="n">
         <v>1.237089078942365</v>
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-2.134883643396783</v>
+        <v>-2.347153215751808</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-1.046836016579239</v>
+        <v>-1.223504216668939</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.136605299687246</v>
+        <v>1.142769387751335</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-0.9251922349226843</v>
+        <v>-0.7916774905570176</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.9847389189977077</v>
+        <v>-0.9596144043180898</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>-0.752016135776987</v>
+        <v>-0.7317899374270296</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>-0.6681522946501295</v>
+        <v>-0.7332102594377559</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>-0.4318664687933508</v>
+        <v>-0.2968228674526269</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.243151058781397</v>
+        <v>1.073042214496196</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>3.798564775326905</v>
+        <v>3.583642160909761</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.313504031023541</v>
+        <v>5.035106466442841</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>7.558244727999224</v>
+        <v>7.533320903140176</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>3.770746551383334</v>
+        <v>3.800662002786968</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.626030071231533</v>
+        <v>3.879209044140334</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>2.679008977805794</v>
+        <v>2.610975993854435</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.304880849780043</v>
+        <v>3.135628663963753</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.508643555469426</v>
+        <v>3.544822404721151</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>4.861986101951191</v>
+        <v>4.834605290058282</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.3643633769769323</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.9770852906990131</v>
+        <v>0.9770852906990124</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.8367549029066587</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.3923566340893755</v>
+        <v>-0.4046685960943808</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2321192939518917</v>
+        <v>-0.2351097410340775</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.148472270804679</v>
+        <v>0.187181339336734</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>-0.4677801599167159</v>
+        <v>-0.5856482541320523</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.5601157203066942</v>
+        <v>-0.5410548830598023</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>-0.3672715210647599</v>
+        <v>-0.3814416836755066</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>-0.218093298068176</v>
+        <v>-0.1961235536890438</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>-0.1344323839832872</v>
+        <v>-0.1188500223298296</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.3120388434882155</v>
+        <v>0.2527709157765578</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>1.191558492912777</v>
+        <v>1.15872817750868</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.547181384161429</v>
+        <v>1.677262262462296</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>2.329348438087675</v>
+        <v>2.495074363234709</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>5.518846622764313</v>
+        <v>6.086158708951263</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>5.948564425429432</v>
+        <v>6.779954290772974</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>4.15080984758181</v>
+        <v>4.161947150622631</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1.502524256073204</v>
+        <v>1.414515376363978</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1.66084193201109</v>
+        <v>1.690854108257747</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>2.498246440926771</v>
+        <v>2.255766832636193</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>-1.045254540656768</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>2.276512641555532</v>
+        <v>2.276512641555531</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>3.395029587064929</v>
@@ -1092,7 +1092,7 @@
         <v>3.378711523327595</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>4.372066453270887</v>
+        <v>4.372066453270884</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>2.185338775670461</v>
+        <v>2.020872686050213</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.367567260913666</v>
+        <v>1.971569092692457</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.59991526469212</v>
+        <v>2.158907827878418</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-6.555682505992641</v>
+        <v>-6.90608655474915</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-6.415698328052597</v>
+        <v>-6.441883520577735</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-3.946214506041538</v>
+        <v>-3.415769541619342</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.8211464085000447</v>
+        <v>0.8294977247098129</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.5414480969218897</v>
+        <v>0.2036099598416163</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.634890337523838</v>
+        <v>1.601792929939757</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>8.616794709123518</v>
+        <v>8.324182702327763</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>7.858829465879894</v>
+        <v>8.284867285991735</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>8.231345484097794</v>
+        <v>8.450521613952196</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>3.709611255540918</v>
+        <v>3.250324389573988</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>4.941785106166702</v>
+        <v>4.805920546049084</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>6.937199389684314</v>
+        <v>7.155981736234616</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>6.240048079755871</v>
+        <v>6.152434494955877</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>6.160358177345524</v>
+        <v>6.040388844308898</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>7.126571921042594</v>
+        <v>6.948048680273507</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>-0.1389129830590436</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3025455998606809</v>
+        <v>0.3025455998606807</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.5866597442912755</v>
@@ -1197,7 +1197,7 @@
         <v>0.5838399894543966</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.7554913209807349</v>
+        <v>0.7554913209807345</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>0.3201510270754364</v>
+        <v>0.3114656978387406</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>0.2058288435334984</v>
+        <v>0.2738807380415899</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>0.2227553631868405</v>
+        <v>0.2770357411668483</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.613925524512476</v>
+        <v>-0.6561747525019187</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.6300149121894244</v>
+        <v>-0.6650010429863923</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.353846077757499</v>
+        <v>-0.3310735301429926</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1123046279478915</v>
+        <v>0.1090509757428692</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>0.06402317769009623</v>
+        <v>0.01044764185396938</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>0.2274652523297065</v>
+        <v>0.1725338986899237</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>2.165355197654443</v>
+        <v>2.143787833648022</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>1.938183567314026</v>
+        <v>2.150020352906041</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>2.126219346844938</v>
+        <v>2.176648446172484</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.8609941999062235</v>
+        <v>0.7640563465657932</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>1.048996701341355</v>
+        <v>1.088350411505799</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.46452161335869</v>
+        <v>1.460514804949933</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>1.356618068712993</v>
+        <v>1.374582382826206</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>1.295876896777135</v>
+        <v>1.33496939411301</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>1.633025735546458</v>
+        <v>1.467413369789166</v>
       </c>
     </row>
     <row r="22">
@@ -1306,7 +1306,7 @@
         <v>0.6988612007315307</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>2.093992395552294</v>
+        <v>2.093992395552295</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.5999498570307821</v>
+        <v>-0.5139014348302887</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-0.3830534022291598</v>
+        <v>-0.1331150699371674</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9455731386131325</v>
+        <v>1.300245485469721</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>-1.151665825389832</v>
+        <v>-1.346241430373223</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>-2.726105653443148</v>
+        <v>-2.608331609916612</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>-0.8428711404068642</v>
+        <v>-1.137305350788366</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>-0.4841155146731383</v>
+        <v>-0.4032201988874631</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>-0.8742055404155027</v>
+        <v>-0.9560253360407268</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.5889475595718462</v>
+        <v>0.5434596688224606</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>3.824889748494238</v>
+        <v>3.950420188494462</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>4.106957444112161</v>
+        <v>4.30396616195653</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>5.332092458143708</v>
+        <v>5.437456951394105</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>3.184277070105331</v>
+        <v>3.137913787785189</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.397130613899434</v>
+        <v>1.410768366197925</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.796945917769272</v>
+        <v>2.711574580811351</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.809899688938566</v>
+        <v>2.671381089384147</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.169472328897245</v>
+        <v>2.253176277270936</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>3.545832625161015</v>
+        <v>3.623859453379174</v>
       </c>
     </row>
     <row r="25">
@@ -1411,7 +1411,7 @@
         <v>0.1116436371302501</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.334516964052138</v>
+        <v>0.3345169640521382</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.07782288434787747</v>
+        <v>-0.06772426984288349</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.05432000760078582</v>
+        <v>-0.01870010206686538</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.1044483748246351</v>
+        <v>0.1467175026940123</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>-0.2274824736333904</v>
+        <v>-0.2436086420212826</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>-0.4847499446847272</v>
+        <v>-0.4853564900262429</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>-0.1625639242230652</v>
+        <v>-0.1917718906143936</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>-0.06860710114509201</v>
+        <v>-0.06339813976409524</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>-0.122863128123177</v>
+        <v>-0.1421025049911631</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.07444829306609982</v>
+        <v>0.07713986277959724</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.5930955911836463</v>
+        <v>0.6154485102812906</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.6234062031233142</v>
+        <v>0.6717813257374151</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.8258100108664979</v>
+        <v>0.8449318371463458</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>1.029266336689763</v>
+        <v>0.9629612762610221</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.4222951043303937</v>
+        <v>0.4430920388114784</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.945781268078055</v>
+        <v>0.9203253956528274</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5184802948652454</v>
+        <v>0.4777522983659039</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3983960277006278</v>
+        <v>0.4042533221229787</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.638674071841943</v>
+        <v>0.6714812076302342</v>
       </c>
     </row>
     <row r="28">
@@ -1502,7 +1502,7 @@
         <v>4.371917925649918</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>1.821298769829827</v>
+        <v>1.821298769829824</v>
       </c>
       <c r="F28" s="5" t="n">
         <v>3.773511329310562</v>
@@ -1520,7 +1520,7 @@
         <v>4.280406973872227</v>
       </c>
       <c r="K28" s="5" t="n">
-        <v>4.237665475510807</v>
+        <v>4.237665475510806</v>
       </c>
     </row>
     <row r="29">
@@ -1531,31 +1531,31 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>-3.430538166704142</v>
+        <v>-2.836560104806791</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.7339362700103819</v>
+        <v>0.5395070986446053</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>-1.456187450417711</v>
+        <v>-1.531865005111396</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>0.7428115879036387</v>
+        <v>0.9233194536497668</v>
       </c>
       <c r="G29" s="5" t="n">
-        <v>1.227876015857637</v>
+        <v>1.083602871984066</v>
       </c>
       <c r="H29" s="5" t="n">
-        <v>3.329729017560161</v>
+        <v>3.294837439077317</v>
       </c>
       <c r="I29" s="5" t="n">
-        <v>0.4364404910301603</v>
+        <v>0.2424498466429303</v>
       </c>
       <c r="J29" s="5" t="n">
-        <v>2.107221168615347</v>
+        <v>1.874364899082314</v>
       </c>
       <c r="K29" s="5" t="n">
-        <v>2.231759768498632</v>
+        <v>2.279706354308724</v>
       </c>
     </row>
     <row r="30">
@@ -1566,31 +1566,31 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>3.881474442223516</v>
+        <v>4.252130214463747</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>7.740375045801963</v>
+        <v>7.709557260440398</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>4.970401474457323</v>
+        <v>4.979914587951611</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>6.4369353872124</v>
+        <v>6.481965846135241</v>
       </c>
       <c r="G30" s="5" t="n">
-        <v>7.183070103614106</v>
+        <v>7.031366915192522</v>
       </c>
       <c r="H30" s="5" t="n">
-        <v>8.008119615742</v>
+        <v>8.300329858468327</v>
       </c>
       <c r="I30" s="5" t="n">
-        <v>4.600156632079934</v>
+        <v>4.608478627631365</v>
       </c>
       <c r="J30" s="5" t="n">
-        <v>6.574204476788002</v>
+        <v>6.520422922321996</v>
       </c>
       <c r="K30" s="5" t="n">
-        <v>6.283053385586975</v>
+        <v>6.1758912334868</v>
       </c>
     </row>
     <row r="31">
@@ -1607,7 +1607,7 @@
         <v>0.6890764223400633</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>0.2870625802381979</v>
+        <v>0.2870625802381974</v>
       </c>
       <c r="F31" s="6" t="n">
         <v>0.7298993789840155</v>
@@ -1625,7 +1625,7 @@
         <v>0.7620391822498765</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>0.7544299299852474</v>
+        <v>0.7544299299852472</v>
       </c>
     </row>
     <row r="32">
@@ -1636,31 +1636,31 @@
         </is>
       </c>
       <c r="C32" s="6" t="n">
-        <v>-0.4024333901808027</v>
+        <v>-0.3629731877360571</v>
       </c>
       <c r="D32" s="6" t="n">
-        <v>0.06926004219506789</v>
+        <v>0.06148591801550975</v>
       </c>
       <c r="E32" s="6" t="n">
-        <v>-0.1699817017627164</v>
+        <v>-0.1941920291779167</v>
       </c>
       <c r="F32" s="6" t="n">
-        <v>0.1061999774234254</v>
+        <v>0.08341332988499901</v>
       </c>
       <c r="G32" s="6" t="n">
-        <v>0.1479361714139567</v>
+        <v>0.1616189086633525</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.4719711675104969</v>
+        <v>0.4429178455334725</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.05496899426508474</v>
+        <v>0.02831564323693822</v>
       </c>
       <c r="J32" s="6" t="n">
-        <v>0.2992415010510863</v>
+        <v>0.2670955642984851</v>
       </c>
       <c r="K32" s="6" t="n">
-        <v>0.3228559628483104</v>
+        <v>0.3301664016080523</v>
       </c>
     </row>
     <row r="33">
@@ -1671,31 +1671,31 @@
         </is>
       </c>
       <c r="C33" s="6" t="n">
-        <v>0.8760852873735941</v>
+        <v>0.9438154526437579</v>
       </c>
       <c r="D33" s="6" t="n">
-        <v>1.672287750079001</v>
+        <v>1.83075919444127</v>
       </c>
       <c r="E33" s="6" t="n">
-        <v>1.159680796973738</v>
+        <v>1.11590826208812</v>
       </c>
       <c r="F33" s="6" t="n">
-        <v>1.648749904905702</v>
+        <v>1.708684354018504</v>
       </c>
       <c r="G33" s="6" t="n">
-        <v>1.967390788246781</v>
+        <v>1.918040998003985</v>
       </c>
       <c r="H33" s="6" t="n">
-        <v>2.110675441561356</v>
+        <v>2.317508536026433</v>
       </c>
       <c r="I33" s="6" t="n">
-        <v>0.966521564689202</v>
+        <v>0.9904882991659296</v>
       </c>
       <c r="J33" s="6" t="n">
-        <v>1.458445774770531</v>
+        <v>1.414848484458093</v>
       </c>
       <c r="K33" s="6" t="n">
-        <v>1.415365652199184</v>
+        <v>1.437639558096821</v>
       </c>
     </row>
     <row r="34">
@@ -1725,7 +1725,7 @@
         <v>3.577744614173599</v>
       </c>
       <c r="H34" s="5" t="n">
-        <v>1.030116380264914</v>
+        <v>1.03011638026491</v>
       </c>
       <c r="I34" s="5" t="n">
         <v>3.692438997180897</v>
@@ -1734,7 +1734,7 @@
         <v>2.896756558936949</v>
       </c>
       <c r="K34" s="5" t="n">
-        <v>0.6675635494658355</v>
+        <v>0.6675635494658327</v>
       </c>
     </row>
     <row r="35">
@@ -1745,31 +1745,31 @@
         </is>
       </c>
       <c r="C35" s="5" t="n">
-        <v>0.3551911541092965</v>
+        <v>0.3522182629670464</v>
       </c>
       <c r="D35" s="5" t="n">
-        <v>-0.1903174127035841</v>
+        <v>0</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>-0.4093514483581998</v>
+        <v>-0.3994118259010436</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>1.397585850625653</v>
+        <v>1.507883294626796</v>
       </c>
       <c r="G35" s="5" t="n">
-        <v>0.7995350185009772</v>
+        <v>0.6733432180594929</v>
       </c>
       <c r="H35" s="5" t="n">
-        <v>-1.088957187860218</v>
+        <v>-1.35091390791179</v>
       </c>
       <c r="I35" s="5" t="n">
-        <v>1.508852903531292</v>
+        <v>1.567039260511996</v>
       </c>
       <c r="J35" s="5" t="n">
-        <v>0.8486376045092648</v>
+        <v>0.7918482299873445</v>
       </c>
       <c r="K35" s="5" t="n">
-        <v>-1.192891294202902</v>
+        <v>-1.35190098496241</v>
       </c>
     </row>
     <row r="36">
@@ -1780,31 +1780,31 @@
         </is>
       </c>
       <c r="C36" s="5" t="n">
-        <v>5.292441430531434</v>
+        <v>4.687457093748297</v>
       </c>
       <c r="D36" s="5" t="n">
-        <v>2.888459747319608</v>
+        <v>2.964574587334416</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>2.105805948672526</v>
+        <v>2.116761333963294</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>6.781335287252401</v>
+        <v>6.850306875536216</v>
       </c>
       <c r="G36" s="5" t="n">
-        <v>6.254939975852723</v>
+        <v>6.320371130811979</v>
       </c>
       <c r="H36" s="5" t="n">
-        <v>3.552060134376815</v>
+        <v>3.607420820181404</v>
       </c>
       <c r="I36" s="5" t="n">
-        <v>5.716343368314976</v>
+        <v>6.01660473733494</v>
       </c>
       <c r="J36" s="5" t="n">
-        <v>5.129643691940382</v>
+        <v>5.286361363539798</v>
       </c>
       <c r="K36" s="5" t="n">
-        <v>2.846091341778296</v>
+        <v>2.438487569487026</v>
       </c>
     </row>
     <row r="37">
@@ -1830,7 +1830,7 @@
         <v>0.364256873246554</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.1048780760563111</v>
+        <v>0.1048780760563106</v>
       </c>
       <c r="I37" s="6" t="n">
         <v>0.4622600748873131</v>
@@ -1839,7 +1839,7 @@
         <v>0.3626478067442281</v>
       </c>
       <c r="K37" s="6" t="n">
-        <v>0.0835729382675566</v>
+        <v>0.08357293826755625</v>
       </c>
     </row>
     <row r="38">
@@ -1853,22 +1853,22 @@
       <c r="D38" s="6" t="inlineStr"/>
       <c r="E38" s="6" t="inlineStr"/>
       <c r="F38" s="6" t="n">
-        <v>0.123811704008497</v>
+        <v>0.1288643598196254</v>
       </c>
       <c r="G38" s="6" t="n">
-        <v>0.0918799024356827</v>
+        <v>0.06466122485036761</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>-0.1005433617987153</v>
+        <v>-0.1269839162789653</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1711031488383712</v>
+        <v>0.1760558641173618</v>
       </c>
       <c r="J38" s="6" t="n">
-        <v>0.09370762866436909</v>
+        <v>0.08989159414668653</v>
       </c>
       <c r="K38" s="6" t="n">
-        <v>-0.1353030774797886</v>
+        <v>-0.1454118359461377</v>
       </c>
     </row>
     <row r="39">
@@ -1882,22 +1882,22 @@
       <c r="D39" s="6" t="inlineStr"/>
       <c r="E39" s="6" t="inlineStr"/>
       <c r="F39" s="6" t="n">
-        <v>0.7698135726364359</v>
+        <v>0.8015070790035806</v>
       </c>
       <c r="G39" s="6" t="n">
-        <v>0.7199618810387249</v>
+        <v>0.7143212366221957</v>
       </c>
       <c r="H39" s="6" t="n">
-        <v>0.4066452119294086</v>
+        <v>0.4157364108547247</v>
       </c>
       <c r="I39" s="6" t="n">
-        <v>0.8135451661341162</v>
+        <v>0.8533522139970995</v>
       </c>
       <c r="J39" s="6" t="n">
-        <v>0.7246633889669842</v>
+        <v>0.7465295546976691</v>
       </c>
       <c r="K39" s="6" t="n">
-        <v>0.399446705780475</v>
+        <v>0.3451255352180503</v>
       </c>
     </row>
     <row r="40">
@@ -1936,7 +1936,7 @@
         <v>2.264824315806799</v>
       </c>
       <c r="K40" s="5" t="n">
-        <v>2.293056873985775</v>
+        <v>2.293056873985776</v>
       </c>
     </row>
     <row r="41">
@@ -1947,31 +1947,31 @@
         </is>
       </c>
       <c r="C41" s="5" t="n">
-        <v>0.6118557409109435</v>
+        <v>0.4822804734338508</v>
       </c>
       <c r="D41" s="5" t="n">
-        <v>1.68175691151583</v>
+        <v>1.484573878347184</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>2.039863444845586</v>
+        <v>2.129755464275693</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>1.100448692415267</v>
+        <v>1.226358521286594</v>
       </c>
       <c r="G41" s="5" t="n">
-        <v>0.5136778626005316</v>
+        <v>0.4844132243088493</v>
       </c>
       <c r="H41" s="5" t="n">
-        <v>0.304009970532407</v>
+        <v>0.1446498903001621</v>
       </c>
       <c r="I41" s="5" t="n">
-        <v>1.185482382017714</v>
+        <v>1.206895580758526</v>
       </c>
       <c r="J41" s="5" t="n">
-        <v>1.386802525707656</v>
+        <v>1.387393541728553</v>
       </c>
       <c r="K41" s="5" t="n">
-        <v>1.504355391070101</v>
+        <v>1.500224086777568</v>
       </c>
     </row>
     <row r="42">
@@ -1982,31 +1982,31 @@
         </is>
       </c>
       <c r="C42" s="5" t="n">
-        <v>2.891391443040736</v>
+        <v>2.914524246208132</v>
       </c>
       <c r="D42" s="5" t="n">
-        <v>3.871043594374727</v>
+        <v>4.052110067242113</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>4.406831339661318</v>
+        <v>4.461330649888884</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>3.615819470652831</v>
+        <v>3.731806467328977</v>
       </c>
       <c r="G42" s="5" t="n">
-        <v>3.09128816732203</v>
+        <v>3.14584008778928</v>
       </c>
       <c r="H42" s="5" t="n">
-        <v>2.401099288106676</v>
+        <v>2.328114079513534</v>
       </c>
       <c r="I42" s="5" t="n">
-        <v>2.93600658170695</v>
+        <v>2.943463711234457</v>
       </c>
       <c r="J42" s="5" t="n">
-        <v>3.150024881234863</v>
+        <v>3.054827056414029</v>
       </c>
       <c r="K42" s="5" t="n">
-        <v>3.055337619992697</v>
+        <v>3.057755090620911</v>
       </c>
     </row>
     <row r="43">
@@ -2041,7 +2041,7 @@
         <v>0.3877707422286291</v>
       </c>
       <c r="K43" s="6" t="n">
-        <v>0.3926045653042942</v>
+        <v>0.3926045653042944</v>
       </c>
     </row>
     <row r="44">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C44" s="6" t="n">
-        <v>0.09727292161808354</v>
+        <v>0.07871715726705659</v>
       </c>
       <c r="D44" s="6" t="n">
-        <v>0.2720072908016923</v>
+        <v>0.2391579437954311</v>
       </c>
       <c r="E44" s="6" t="n">
-        <v>0.3319987772965821</v>
+        <v>0.3429173962974855</v>
       </c>
       <c r="F44" s="6" t="n">
-        <v>0.1627106633305576</v>
+        <v>0.1791057823654295</v>
       </c>
       <c r="G44" s="6" t="n">
-        <v>0.08056199248795447</v>
+        <v>0.0712172923307684</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.04123668852586941</v>
+        <v>0.02061509094310022</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.1887847148058371</v>
+        <v>0.1954355209227079</v>
       </c>
       <c r="J44" s="6" t="n">
-        <v>0.222695204784625</v>
+        <v>0.221401958376187</v>
       </c>
       <c r="K44" s="6" t="n">
-        <v>0.2401954209211001</v>
+        <v>0.2365670818354725</v>
       </c>
     </row>
     <row r="45">
@@ -2087,31 +2087,31 @@
         </is>
       </c>
       <c r="C45" s="6" t="n">
-        <v>0.5794083571521045</v>
+        <v>0.5751215655854699</v>
       </c>
       <c r="D45" s="6" t="n">
-        <v>0.7610019707629936</v>
+        <v>0.7974193179772404</v>
       </c>
       <c r="E45" s="6" t="n">
-        <v>0.8757052486415311</v>
+        <v>0.8792626902936408</v>
       </c>
       <c r="F45" s="6" t="n">
-        <v>0.6570680050467499</v>
+        <v>0.6848358499501471</v>
       </c>
       <c r="G45" s="6" t="n">
-        <v>0.5703640702076125</v>
+        <v>0.5865120753699854</v>
       </c>
       <c r="H45" s="6" t="n">
-        <v>0.4473579163098576</v>
+        <v>0.4185486153360566</v>
       </c>
       <c r="I45" s="6" t="n">
-        <v>0.527864209013936</v>
+        <v>0.5555763411007939</v>
       </c>
       <c r="J45" s="6" t="n">
-        <v>0.585183931328433</v>
+        <v>0.5668945891602998</v>
       </c>
       <c r="K45" s="6" t="n">
-        <v>0.5591231728229378</v>
+        <v>0.564079699980545</v>
       </c>
     </row>
     <row r="46">
